--- a/data/LicenseName.xlsx
+++ b/data/LicenseName.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christianjohn/Documents/StatewiseDL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christianjohn/Documents/Tutorials/statewiseDL/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2B0B67-1BA9-734F-84EB-817392B78B58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF65E4CB-694E-C641-AF6F-77D4653FAB2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18420" yWindow="460" windowWidth="10000" windowHeight="15940" xr2:uid="{95900210-FDB3-E648-8F81-843D28E4CF6F}"/>
   </bookViews>
@@ -198,10 +198,10 @@
     <t>Puerto Rico</t>
   </si>
   <si>
-    <t>Licensia de Conducir/Driver's License</t>
-  </si>
-  <si>
     <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Licencia de Conducir/Driver's License</t>
   </si>
 </sst>
 </file>
@@ -556,7 +556,7 @@
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -742,7 +742,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
         <v>49</v>
@@ -889,7 +889,7 @@
         <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">

--- a/data/LicenseName.xlsx
+++ b/data/LicenseName.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christianjohn/Documents/Tutorials/statewiseDL/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF65E4CB-694E-C641-AF6F-77D4653FAB2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4E0EF3-ED21-494B-8BBD-E91F3EE5F162}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18420" yWindow="460" windowWidth="10000" windowHeight="15940" xr2:uid="{95900210-FDB3-E648-8F81-843D28E4CF6F}"/>
   </bookViews>
@@ -556,7 +556,7 @@
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -745,7 +745,7 @@
         <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
